--- a/Code/Results/Cases/Case_0_100/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_100/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9705228343068349</v>
+        <v>1.021690843904739</v>
       </c>
       <c r="D2">
-        <v>0.9792193293364482</v>
+        <v>1.024335558322903</v>
       </c>
       <c r="E2">
-        <v>0.9863086982493298</v>
+        <v>1.031020845341375</v>
       </c>
       <c r="F2">
-        <v>0.987429896489653</v>
+        <v>1.038574876731988</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.023594999628091</v>
       </c>
       <c r="J2">
-        <v>0.9936224252940052</v>
+        <v>1.026880887232523</v>
       </c>
       <c r="K2">
-        <v>0.9909759698792127</v>
+        <v>1.027164360691543</v>
       </c>
       <c r="L2">
-        <v>0.997962128573326</v>
+        <v>1.033830170034838</v>
       </c>
       <c r="M2">
-        <v>0.9990671758266185</v>
+        <v>1.041362520405702</v>
       </c>
       <c r="N2">
-        <v>1.001219799709379</v>
+        <v>1.012902122864229</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9763780637656009</v>
+        <v>1.022915699364301</v>
       </c>
       <c r="D3">
-        <v>0.9843779612353722</v>
+        <v>1.025472823016218</v>
       </c>
       <c r="E3">
-        <v>0.9914200871722367</v>
+        <v>1.032148780016427</v>
       </c>
       <c r="F3">
-        <v>0.9932779169638518</v>
+        <v>1.039878878316175</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208683</v>
       </c>
       <c r="J3">
-        <v>0.9975340771030941</v>
+        <v>1.027742038119587</v>
       </c>
       <c r="K3">
-        <v>0.9952147099218537</v>
+        <v>1.028107796482225</v>
       </c>
       <c r="L3">
-        <v>1.00216393962459</v>
+        <v>1.034765724350206</v>
       </c>
       <c r="M3">
-        <v>1.003997536843052</v>
+        <v>1.042475259291091</v>
       </c>
       <c r="N3">
-        <v>1.002610256183353</v>
+        <v>1.013198654409765</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9800758050945612</v>
+        <v>1.02370846351063</v>
       </c>
       <c r="D4">
-        <v>0.9876423908517308</v>
+        <v>1.02620923292253</v>
       </c>
       <c r="E4">
-        <v>0.9946548410623526</v>
+        <v>1.03287913268215</v>
       </c>
       <c r="F4">
-        <v>0.9969794586038552</v>
+        <v>1.040723474215049</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>1.000003280211385</v>
+        <v>1.028299001338133</v>
       </c>
       <c r="K4">
-        <v>0.997892285544938</v>
+        <v>1.028718212256756</v>
       </c>
       <c r="L4">
-        <v>1.004818208431111</v>
+        <v>1.035371015438443</v>
       </c>
       <c r="M4">
-        <v>1.00711447612598</v>
+        <v>1.043195552127368</v>
       </c>
       <c r="N4">
-        <v>1.003486544079796</v>
+        <v>1.013390147115894</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9816095831089606</v>
+        <v>1.024041791797002</v>
       </c>
       <c r="D5">
-        <v>0.9889979584909755</v>
+        <v>1.026518946372307</v>
       </c>
       <c r="E5">
-        <v>0.995998133868673</v>
+        <v>1.033186294828393</v>
       </c>
       <c r="F5">
-        <v>0.9985167691500073</v>
+        <v>1.041078740419354</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628374</v>
       </c>
       <c r="J5">
-        <v>1.001027157178789</v>
+        <v>1.028533087849027</v>
       </c>
       <c r="K5">
-        <v>0.999003022432831</v>
+        <v>1.028974820251848</v>
       </c>
       <c r="L5">
-        <v>1.005919279588922</v>
+        <v>1.035625463062533</v>
       </c>
       <c r="M5">
-        <v>1.008408077953859</v>
+        <v>1.043498430967106</v>
       </c>
       <c r="N5">
-        <v>1.003849543074476</v>
+        <v>1.013470559150397</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9818659229188739</v>
+        <v>1.024097762092453</v>
       </c>
       <c r="D6">
-        <v>0.9892246017609265</v>
+        <v>1.02657095609456</v>
       </c>
       <c r="E6">
-        <v>0.9962227275551401</v>
+        <v>1.033237875890923</v>
       </c>
       <c r="F6">
-        <v>0.9987738130255527</v>
+        <v>1.041138402848366</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>1.001198257242499</v>
+        <v>1.028572388471618</v>
       </c>
       <c r="K6">
-        <v>0.9991886645087358</v>
+        <v>1.029017905266287</v>
       </c>
       <c r="L6">
-        <v>1.006103306278691</v>
+        <v>1.035668184991953</v>
       </c>
       <c r="M6">
-        <v>1.008624318828512</v>
+        <v>1.043549289674495</v>
       </c>
       <c r="N6">
-        <v>1.003910182032137</v>
+        <v>1.013484055325069</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9800963797428718</v>
+        <v>1.023712917259372</v>
       </c>
       <c r="D7">
-        <v>0.9876605689868303</v>
+        <v>1.026213370829142</v>
       </c>
       <c r="E7">
-        <v>0.9946728544079388</v>
+        <v>1.032883236517173</v>
       </c>
       <c r="F7">
-        <v>0.9970000729667741</v>
+        <v>1.040728220518781</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.023442985510381</v>
       </c>
       <c r="J7">
-        <v>1.000017016188216</v>
+        <v>1.028302129451087</v>
       </c>
       <c r="K7">
-        <v>0.9979071849989724</v>
+        <v>1.028721641106224</v>
       </c>
       <c r="L7">
-        <v>1.004832978221467</v>
+        <v>1.035374415444325</v>
       </c>
       <c r="M7">
-        <v>1.007131826133466</v>
+        <v>1.04319959894115</v>
       </c>
       <c r="N7">
-        <v>1.00349141540195</v>
+        <v>1.013391221944717</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.972521117080434</v>
+        <v>1.022104749281811</v>
       </c>
       <c r="D8">
-        <v>0.9809784464362814</v>
+        <v>1.024719794660998</v>
       </c>
       <c r="E8">
-        <v>0.9880516561244215</v>
+        <v>1.031401932699479</v>
       </c>
       <c r="F8">
-        <v>0.9894239325607587</v>
+        <v>1.039015401568393</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.994957602789408</v>
+        <v>1.027171971539207</v>
       </c>
       <c r="K8">
-        <v>0.9924223941123383</v>
+        <v>1.027483210386509</v>
       </c>
       <c r="L8">
-        <v>0.9993959452688628</v>
+        <v>1.034146361289477</v>
       </c>
       <c r="M8">
-        <v>1.000749095166279</v>
+        <v>1.041738519439616</v>
       </c>
       <c r="N8">
-        <v>1.00169469754655</v>
+        <v>1.013002416517993</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9584256261914997</v>
+        <v>1.019272392115521</v>
       </c>
       <c r="D9">
-        <v>0.9686010987592282</v>
+        <v>1.022091871198492</v>
       </c>
       <c r="E9">
-        <v>0.9757891541375225</v>
+        <v>1.028795482072916</v>
       </c>
       <c r="F9">
-        <v>0.9753962856044527</v>
+        <v>1.036003390439823</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.9855370130975862</v>
+        <v>1.025178452617401</v>
       </c>
       <c r="K9">
-        <v>0.9822250077650827</v>
+        <v>1.025300496739729</v>
       </c>
       <c r="L9">
-        <v>0.9892876412731183</v>
+        <v>1.031981742428135</v>
       </c>
       <c r="M9">
-        <v>0.988901565982529</v>
+        <v>1.039165957157512</v>
       </c>
       <c r="N9">
-        <v>0.9983386673168404</v>
+        <v>1.012314349007886</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9484497661349572</v>
+        <v>1.017384984856246</v>
       </c>
       <c r="D10">
-        <v>0.9598844147796545</v>
+        <v>1.020342488935981</v>
       </c>
       <c r="E10">
-        <v>0.9671550714018964</v>
+        <v>1.027060314229686</v>
       </c>
       <c r="F10">
-        <v>0.9655194642066287</v>
+        <v>1.03399943006943</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.9788692507718166</v>
+        <v>1.023847995584439</v>
       </c>
       <c r="K10">
-        <v>0.9750178184652077</v>
+        <v>1.023844978841961</v>
       </c>
       <c r="L10">
-        <v>0.9821438019598521</v>
+        <v>1.030538160295124</v>
       </c>
       <c r="M10">
-        <v>0.9805404908935137</v>
+        <v>1.037452191705204</v>
       </c>
       <c r="N10">
-        <v>0.9959574846269156</v>
+        <v>1.011853645171917</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9439734677529941</v>
+        <v>1.016567882665679</v>
       </c>
       <c r="D11">
-        <v>0.9559846128729685</v>
+        <v>1.019585575667658</v>
       </c>
       <c r="E11">
-        <v>0.9632927263695283</v>
+        <v>1.026309532453585</v>
       </c>
       <c r="F11">
-        <v>0.9611006771835048</v>
+        <v>1.033132626194481</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.9758781735693295</v>
+        <v>1.023271533123659</v>
       </c>
       <c r="K11">
-        <v>0.9717872349165989</v>
+        <v>1.023214616269054</v>
       </c>
       <c r="L11">
-        <v>0.9789417562837185</v>
+        <v>1.029912935901777</v>
       </c>
       <c r="M11">
-        <v>0.9767954524064777</v>
+        <v>1.036710392232467</v>
       </c>
       <c r="N11">
-        <v>0.994888245863829</v>
+        <v>1.011653679462174</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9422853860952409</v>
+        <v>1.016264395459756</v>
       </c>
       <c r="D12">
-        <v>0.9545157781621584</v>
+        <v>1.019304509815653</v>
       </c>
       <c r="E12">
-        <v>0.9618380836733448</v>
+        <v>1.026030740622868</v>
       </c>
       <c r="F12">
-        <v>0.9594363377594174</v>
+        <v>1.032810793105168</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268129</v>
       </c>
       <c r="J12">
-        <v>0.9747504056270317</v>
+        <v>1.023057352782322</v>
       </c>
       <c r="K12">
-        <v>0.9705695354961159</v>
+        <v>1.022980452815151</v>
       </c>
       <c r="L12">
-        <v>0.9777348395796301</v>
+        <v>1.02968067648427</v>
       </c>
       <c r="M12">
-        <v>0.9753842407604094</v>
+        <v>1.036434893748598</v>
       </c>
       <c r="N12">
-        <v>0.9944849633783828</v>
+        <v>1.011579331165185</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9426486657606115</v>
+        <v>1.016329493592705</v>
       </c>
       <c r="D13">
-        <v>0.9548317902072166</v>
+        <v>1.019364795558033</v>
       </c>
       <c r="E13">
-        <v>0.962151038431513</v>
+        <v>1.026090538737243</v>
       </c>
       <c r="F13">
-        <v>0.9597944137611853</v>
+        <v>1.032879821258317</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.9749930931443767</v>
+        <v>1.023103297775152</v>
       </c>
       <c r="K13">
-        <v>0.970831558751444</v>
+        <v>1.023030682544738</v>
       </c>
       <c r="L13">
-        <v>0.9779945413678063</v>
+        <v>1.02973049799565</v>
       </c>
       <c r="M13">
-        <v>0.9756878859331209</v>
+        <v>1.03649398738241</v>
       </c>
       <c r="N13">
-        <v>0.9945717523635953</v>
+        <v>1.011595282396544</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9438344595827645</v>
+        <v>1.016542795907517</v>
       </c>
       <c r="D14">
-        <v>0.9558636209161371</v>
+        <v>1.019562340944287</v>
       </c>
       <c r="E14">
-        <v>0.9631729016857142</v>
+        <v>1.026286485772475</v>
       </c>
       <c r="F14">
-        <v>0.9609635818682561</v>
+        <v>1.033106020600884</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353276</v>
       </c>
       <c r="J14">
-        <v>0.9757853005834252</v>
+        <v>1.023253830071777</v>
       </c>
       <c r="K14">
-        <v>0.971686948388965</v>
+        <v>1.023195260636441</v>
       </c>
       <c r="L14">
-        <v>0.9788423572360389</v>
+        <v>1.02989373774941</v>
       </c>
       <c r="M14">
-        <v>0.9766792206770532</v>
+        <v>1.036687618660718</v>
       </c>
       <c r="N14">
-        <v>0.9948550376067181</v>
+        <v>1.011647535282064</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9445616441421003</v>
+        <v>1.016674221194607</v>
       </c>
       <c r="D15">
-        <v>0.9564966340593937</v>
+        <v>1.019684066443393</v>
       </c>
       <c r="E15">
-        <v>0.9637998112988381</v>
+        <v>1.026407226013614</v>
       </c>
       <c r="F15">
-        <v>0.9616808439816088</v>
+        <v>1.033245407492866</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.9762711503437232</v>
+        <v>1.023346570452244</v>
       </c>
       <c r="K15">
-        <v>0.9722115960648259</v>
+        <v>1.023296660099796</v>
       </c>
       <c r="L15">
-        <v>0.9793623631586885</v>
+        <v>1.029994312020902</v>
       </c>
       <c r="M15">
-        <v>0.9772873016849117</v>
+        <v>1.036806926371481</v>
       </c>
       <c r="N15">
-        <v>0.9950287559301377</v>
+        <v>1.011679720441768</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9487433888621071</v>
+        <v>1.017439216323486</v>
       </c>
       <c r="D16">
-        <v>0.9601404702905671</v>
+        <v>1.020392734858089</v>
       </c>
       <c r="E16">
-        <v>0.9674086786959698</v>
+        <v>1.027110152733824</v>
       </c>
       <c r="F16">
-        <v>0.9658095933361813</v>
+        <v>1.034056976255929</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.9790654750500095</v>
+        <v>1.023886245659489</v>
       </c>
       <c r="K16">
-        <v>0.9752298066176179</v>
+        <v>1.023886811393775</v>
       </c>
       <c r="L16">
-        <v>0.9823539208082982</v>
+        <v>1.030579651209672</v>
       </c>
       <c r="M16">
-        <v>0.9807862933836499</v>
+        <v>1.037501428055798</v>
       </c>
       <c r="N16">
-        <v>0.9960276102673971</v>
+        <v>1.011866906140499</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9513232924764171</v>
+        <v>1.017919117811125</v>
       </c>
       <c r="D17">
-        <v>0.9623916063026794</v>
+        <v>1.020837418041759</v>
       </c>
       <c r="E17">
-        <v>0.9696383488895512</v>
+        <v>1.027551228051581</v>
       </c>
       <c r="F17">
-        <v>0.9683602923723427</v>
+        <v>1.034566297647292</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.9807896959043211</v>
+        <v>1.024224670625149</v>
       </c>
       <c r="K17">
-        <v>0.9770928250981015</v>
+        <v>1.02425696610334</v>
       </c>
       <c r="L17">
-        <v>0.9842005278335464</v>
+        <v>1.030946779363451</v>
       </c>
       <c r="M17">
-        <v>0.9829467950650499</v>
+        <v>1.037937142071138</v>
       </c>
       <c r="N17">
-        <v>0.9966436856736551</v>
+        <v>1.011984194602441</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9528131228331365</v>
+        <v>1.018199051623163</v>
       </c>
       <c r="D18">
-        <v>0.9636926584467114</v>
+        <v>1.021096850381806</v>
       </c>
       <c r="E18">
-        <v>0.9709270416140612</v>
+        <v>1.027808553720032</v>
       </c>
       <c r="F18">
-        <v>0.969834486033991</v>
+        <v>1.034863465530954</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601784</v>
       </c>
       <c r="J18">
-        <v>0.9817854633906411</v>
+        <v>1.024422032995243</v>
       </c>
       <c r="K18">
-        <v>0.9781689842258242</v>
+        <v>1.024472860222666</v>
       </c>
       <c r="L18">
-        <v>0.985267220051474</v>
+        <v>1.031160905240654</v>
       </c>
       <c r="M18">
-        <v>0.9841950558448238</v>
+        <v>1.038191313094061</v>
       </c>
       <c r="N18">
-        <v>0.996999377007821</v>
+        <v>1.012052560889342</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9533186280136875</v>
+        <v>1.018294504512702</v>
       </c>
       <c r="D19">
-        <v>0.9641342898608221</v>
+        <v>1.02118531968617</v>
       </c>
       <c r="E19">
-        <v>0.9713644854203985</v>
+        <v>1.027896304318693</v>
       </c>
       <c r="F19">
-        <v>0.9703348914204389</v>
+        <v>1.03496480732389</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044815</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.9821233409584941</v>
+        <v>1.024489322541735</v>
       </c>
       <c r="K19">
-        <v>0.9785341793730962</v>
+        <v>1.024546472745361</v>
       </c>
       <c r="L19">
-        <v>0.9856292046794644</v>
+        <v>1.031233914345796</v>
       </c>
       <c r="M19">
-        <v>0.9846186987679652</v>
+        <v>1.038277983385228</v>
       </c>
       <c r="N19">
-        <v>0.9971200496846728</v>
+        <v>1.012075864218767</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9510480558175284</v>
+        <v>1.017867627352106</v>
       </c>
       <c r="D20">
-        <v>0.9621513315616136</v>
+        <v>1.020789701949646</v>
       </c>
       <c r="E20">
-        <v>0.9694003603796388</v>
+        <v>1.027503899283302</v>
       </c>
       <c r="F20">
-        <v>0.9680880432555824</v>
+        <v>1.034511643060462</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030192</v>
       </c>
       <c r="J20">
-        <v>0.9806057394886053</v>
+        <v>1.024188364480832</v>
       </c>
       <c r="K20">
-        <v>0.9768940361574319</v>
+        <v>1.024217253142234</v>
       </c>
       <c r="L20">
-        <v>0.9840034886514717</v>
+        <v>1.030907391423385</v>
       </c>
       <c r="M20">
-        <v>0.9827162367280908</v>
+        <v>1.037890391364987</v>
       </c>
       <c r="N20">
-        <v>0.9965779673308558</v>
+        <v>1.011971615430321</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9434859893734341</v>
+        <v>1.016479983136562</v>
       </c>
       <c r="D21">
-        <v>0.9555603443791946</v>
+        <v>1.01950416640786</v>
       </c>
       <c r="E21">
-        <v>0.9628725524028034</v>
+        <v>1.026228782006593</v>
       </c>
       <c r="F21">
-        <v>0.9606199402410813</v>
+        <v>1.033039406784441</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.9755524873101054</v>
+        <v>1.02320950363501</v>
       </c>
       <c r="K21">
-        <v>0.9714355569153488</v>
+        <v>1.023146797020599</v>
       </c>
       <c r="L21">
-        <v>0.9785931908720417</v>
+        <v>1.029845668365232</v>
       </c>
       <c r="M21">
-        <v>0.9763878652460911</v>
+        <v>1.036630598018782</v>
       </c>
       <c r="N21">
-        <v>0.9947717893767279</v>
+        <v>1.011632150103403</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9385834912712936</v>
+        <v>1.015607635870915</v>
       </c>
       <c r="D22">
-        <v>0.9512982100562212</v>
+        <v>1.018696392602322</v>
       </c>
       <c r="E22">
-        <v>0.9586517693287192</v>
+        <v>1.025427538414887</v>
       </c>
       <c r="F22">
-        <v>0.9557903978711082</v>
+        <v>1.032114541764025</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.9722777538070593</v>
+        <v>1.022593727210534</v>
       </c>
       <c r="K22">
-        <v>0.9679003958206616</v>
+        <v>1.022473649605805</v>
       </c>
       <c r="L22">
-        <v>0.9750893885829269</v>
+        <v>1.02917798567144</v>
       </c>
       <c r="M22">
-        <v>0.9722916513841074</v>
+        <v>1.035838739815563</v>
       </c>
       <c r="N22">
-        <v>0.9936005480207811</v>
+        <v>1.011418297299844</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9411970867720773</v>
+        <v>1.016070073231402</v>
       </c>
       <c r="D23">
-        <v>0.9535693606233883</v>
+        <v>1.019124562618864</v>
       </c>
       <c r="E23">
-        <v>0.9609008353892387</v>
+        <v>1.025852248541195</v>
       </c>
       <c r="F23">
-        <v>0.9583639357518358</v>
+        <v>1.032604756279735</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288725</v>
       </c>
       <c r="J23">
-        <v>0.9740234101700497</v>
+        <v>1.022920193533506</v>
       </c>
       <c r="K23">
-        <v>0.969784672624127</v>
+        <v>1.022830508683172</v>
       </c>
       <c r="L23">
-        <v>0.9769569346131328</v>
+        <v>1.029531950268402</v>
       </c>
       <c r="M23">
-        <v>0.9744747613353589</v>
+        <v>1.036258498291528</v>
       </c>
       <c r="N23">
-        <v>0.9942249608951518</v>
+        <v>1.011531704399516</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9511724695841338</v>
+        <v>1.017890893626573</v>
       </c>
       <c r="D24">
-        <v>0.9622599383445565</v>
+        <v>1.020811262624287</v>
       </c>
       <c r="E24">
-        <v>0.9695079336167457</v>
+        <v>1.027525284949974</v>
       </c>
       <c r="F24">
-        <v>0.9682111027745055</v>
+        <v>1.03453633883968</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.9806888921121545</v>
+        <v>1.024204769773426</v>
       </c>
       <c r="K24">
-        <v>0.9769838927060515</v>
+        <v>1.024235197753534</v>
       </c>
       <c r="L24">
-        <v>0.9840925542343211</v>
+        <v>1.030925189180637</v>
       </c>
       <c r="M24">
-        <v>0.9828204528585999</v>
+        <v>1.037911515915169</v>
       </c>
       <c r="N24">
-        <v>0.9966076738878989</v>
+        <v>1.011977299559188</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9621656349244978</v>
+        <v>1.020004467820774</v>
       </c>
       <c r="D25">
-        <v>0.971878204581091</v>
+        <v>1.022770793549331</v>
       </c>
       <c r="E25">
-        <v>0.9790355851587873</v>
+        <v>1.029468871081095</v>
       </c>
       <c r="F25">
-        <v>0.9791098436414111</v>
+        <v>1.036781345557515</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.9880369878437151</v>
+        <v>1.02569407411275</v>
       </c>
       <c r="K25">
-        <v>0.9849293481154523</v>
+        <v>1.025864840905052</v>
       </c>
       <c r="L25">
-        <v>0.9919683050629025</v>
+        <v>1.032541431143884</v>
       </c>
       <c r="M25">
-        <v>0.992041346556972</v>
+        <v>1.039830793941406</v>
       </c>
       <c r="N25">
-        <v>0.9992303662701053</v>
+        <v>1.012492581078627</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_100/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_100/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021690843904739</v>
+        <v>0.9705228343068358</v>
       </c>
       <c r="D2">
-        <v>1.024335558322903</v>
+        <v>0.9792193293364494</v>
       </c>
       <c r="E2">
-        <v>1.031020845341375</v>
+        <v>0.9863086982493305</v>
       </c>
       <c r="F2">
-        <v>1.038574876731988</v>
+        <v>0.9874298964896537</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.023594999628091</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.026880887232523</v>
+        <v>0.9936224252940061</v>
       </c>
       <c r="K2">
-        <v>1.027164360691543</v>
+        <v>0.9909759698792139</v>
       </c>
       <c r="L2">
-        <v>1.033830170034838</v>
+        <v>0.9979621285733267</v>
       </c>
       <c r="M2">
-        <v>1.041362520405702</v>
+        <v>0.9990671758266193</v>
       </c>
       <c r="N2">
-        <v>1.012902122864229</v>
+        <v>1.001219799709379</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022915699364301</v>
+        <v>0.9763780637656004</v>
       </c>
       <c r="D3">
-        <v>1.025472823016218</v>
+        <v>0.9843779612353718</v>
       </c>
       <c r="E3">
-        <v>1.032148780016427</v>
+        <v>0.9914200871722363</v>
       </c>
       <c r="F3">
-        <v>1.039878878316175</v>
+        <v>0.9932779169638511</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208683</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.027742038119587</v>
+        <v>0.9975340771030937</v>
       </c>
       <c r="K3">
-        <v>1.028107796482225</v>
+        <v>0.9952147099218533</v>
       </c>
       <c r="L3">
-        <v>1.034765724350206</v>
+        <v>1.00216393962459</v>
       </c>
       <c r="M3">
-        <v>1.042475259291091</v>
+        <v>1.003997536843051</v>
       </c>
       <c r="N3">
-        <v>1.013198654409765</v>
+        <v>1.002610256183352</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02370846351063</v>
+        <v>0.9800758050945613</v>
       </c>
       <c r="D4">
-        <v>1.02620923292253</v>
+        <v>0.9876423908517309</v>
       </c>
       <c r="E4">
-        <v>1.03287913268215</v>
+        <v>0.9946548410623526</v>
       </c>
       <c r="F4">
-        <v>1.040723474215049</v>
+        <v>0.9969794586038554</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.028299001338133</v>
+        <v>1.000003280211385</v>
       </c>
       <c r="K4">
-        <v>1.028718212256756</v>
+        <v>0.997892285544938</v>
       </c>
       <c r="L4">
-        <v>1.035371015438443</v>
+        <v>1.004818208431111</v>
       </c>
       <c r="M4">
-        <v>1.043195552127368</v>
+        <v>1.00711447612598</v>
       </c>
       <c r="N4">
-        <v>1.013390147115894</v>
+        <v>1.003486544079796</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024041791797002</v>
+        <v>0.9816095831089611</v>
       </c>
       <c r="D5">
-        <v>1.026518946372307</v>
+        <v>0.9889979584909762</v>
       </c>
       <c r="E5">
-        <v>1.033186294828393</v>
+        <v>0.9959981338686733</v>
       </c>
       <c r="F5">
-        <v>1.041078740419354</v>
+        <v>0.9985167691500078</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628374</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.028533087849027</v>
+        <v>1.001027157178789</v>
       </c>
       <c r="K5">
-        <v>1.028974820251848</v>
+        <v>0.9990030224328315</v>
       </c>
       <c r="L5">
-        <v>1.035625463062533</v>
+        <v>1.005919279588922</v>
       </c>
       <c r="M5">
-        <v>1.043498430967106</v>
+        <v>1.008408077953859</v>
       </c>
       <c r="N5">
-        <v>1.013470559150397</v>
+        <v>1.003849543074476</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024097762092453</v>
+        <v>0.9818659229188732</v>
       </c>
       <c r="D6">
-        <v>1.02657095609456</v>
+        <v>0.9892246017609259</v>
       </c>
       <c r="E6">
-        <v>1.033237875890923</v>
+        <v>0.9962227275551392</v>
       </c>
       <c r="F6">
-        <v>1.041138402848366</v>
+        <v>0.9987738130255516</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.028572388471618</v>
+        <v>1.001198257242498</v>
       </c>
       <c r="K6">
-        <v>1.029017905266287</v>
+        <v>0.999188664508735</v>
       </c>
       <c r="L6">
-        <v>1.035668184991953</v>
+        <v>1.00610330627869</v>
       </c>
       <c r="M6">
-        <v>1.043549289674495</v>
+        <v>1.008624318828511</v>
       </c>
       <c r="N6">
-        <v>1.013484055325069</v>
+        <v>1.003910182032137</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023712917259372</v>
+        <v>0.9800963797428714</v>
       </c>
       <c r="D7">
-        <v>1.026213370829142</v>
+        <v>0.9876605689868302</v>
       </c>
       <c r="E7">
-        <v>1.032883236517173</v>
+        <v>0.9946728544079384</v>
       </c>
       <c r="F7">
-        <v>1.040728220518781</v>
+        <v>0.9970000729667742</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023442985510381</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.028302129451087</v>
+        <v>1.000017016188216</v>
       </c>
       <c r="K7">
-        <v>1.028721641106224</v>
+        <v>0.9979071849989721</v>
       </c>
       <c r="L7">
-        <v>1.035374415444325</v>
+        <v>1.004832978221467</v>
       </c>
       <c r="M7">
-        <v>1.04319959894115</v>
+        <v>1.007131826133466</v>
       </c>
       <c r="N7">
-        <v>1.013391221944717</v>
+        <v>1.00349141540195</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022104749281811</v>
+        <v>0.9725211170804349</v>
       </c>
       <c r="D8">
-        <v>1.024719794660998</v>
+        <v>0.9809784464362823</v>
       </c>
       <c r="E8">
-        <v>1.031401932699479</v>
+        <v>0.988051656124422</v>
       </c>
       <c r="F8">
-        <v>1.039015401568393</v>
+        <v>0.9894239325607593</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.027171971539207</v>
+        <v>0.9949576027894089</v>
       </c>
       <c r="K8">
-        <v>1.027483210386509</v>
+        <v>0.9924223941123393</v>
       </c>
       <c r="L8">
-        <v>1.034146361289477</v>
+        <v>0.9993959452688636</v>
       </c>
       <c r="M8">
-        <v>1.041738519439616</v>
+        <v>1.00074909516628</v>
       </c>
       <c r="N8">
-        <v>1.013002416517993</v>
+        <v>1.001694697546551</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019272392115521</v>
+        <v>0.9584256261915003</v>
       </c>
       <c r="D9">
-        <v>1.022091871198492</v>
+        <v>0.9686010987592291</v>
       </c>
       <c r="E9">
-        <v>1.028795482072916</v>
+        <v>0.9757891541375231</v>
       </c>
       <c r="F9">
-        <v>1.036003390439823</v>
+        <v>0.9753962856044532</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.025178452617401</v>
+        <v>0.9855370130975867</v>
       </c>
       <c r="K9">
-        <v>1.025300496739729</v>
+        <v>0.9822250077650835</v>
       </c>
       <c r="L9">
-        <v>1.031981742428135</v>
+        <v>0.9892876412731191</v>
       </c>
       <c r="M9">
-        <v>1.039165957157512</v>
+        <v>0.9889015659825298</v>
       </c>
       <c r="N9">
-        <v>1.012314349007886</v>
+        <v>0.9983386673168407</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017384984856246</v>
+        <v>0.948449766134956</v>
       </c>
       <c r="D10">
-        <v>1.020342488935981</v>
+        <v>0.9598844147796532</v>
       </c>
       <c r="E10">
-        <v>1.027060314229686</v>
+        <v>0.9671550714018955</v>
       </c>
       <c r="F10">
-        <v>1.03399943006943</v>
+        <v>0.9655194642066279</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.023847995584439</v>
+        <v>0.9788692507718155</v>
       </c>
       <c r="K10">
-        <v>1.023844978841961</v>
+        <v>0.9750178184652066</v>
       </c>
       <c r="L10">
-        <v>1.030538160295124</v>
+        <v>0.9821438019598511</v>
       </c>
       <c r="M10">
-        <v>1.037452191705204</v>
+        <v>0.9805404908935127</v>
       </c>
       <c r="N10">
-        <v>1.011853645171917</v>
+        <v>0.9959574846269152</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016567882665679</v>
+        <v>0.943973467752994</v>
       </c>
       <c r="D11">
-        <v>1.019585575667658</v>
+        <v>0.9559846128729684</v>
       </c>
       <c r="E11">
-        <v>1.026309532453585</v>
+        <v>0.9632927263695279</v>
       </c>
       <c r="F11">
-        <v>1.033132626194481</v>
+        <v>0.9611006771835042</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.023271533123659</v>
+        <v>0.9758781735693293</v>
       </c>
       <c r="K11">
-        <v>1.023214616269054</v>
+        <v>0.9717872349165989</v>
       </c>
       <c r="L11">
-        <v>1.029912935901777</v>
+        <v>0.9789417562837182</v>
       </c>
       <c r="M11">
-        <v>1.036710392232467</v>
+        <v>0.9767954524064771</v>
       </c>
       <c r="N11">
-        <v>1.011653679462174</v>
+        <v>0.9948882458638288</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016264395459756</v>
+        <v>0.9422853860952396</v>
       </c>
       <c r="D12">
-        <v>1.019304509815653</v>
+        <v>0.954515778162157</v>
       </c>
       <c r="E12">
-        <v>1.026030740622868</v>
+        <v>0.9618380836733434</v>
       </c>
       <c r="F12">
-        <v>1.032810793105168</v>
+        <v>0.9594363377594159</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268129</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.023057352782322</v>
+        <v>0.9747504056270304</v>
       </c>
       <c r="K12">
-        <v>1.022980452815151</v>
+        <v>0.9705695354961146</v>
       </c>
       <c r="L12">
-        <v>1.02968067648427</v>
+        <v>0.9777348395796289</v>
       </c>
       <c r="M12">
-        <v>1.036434893748598</v>
+        <v>0.9753842407604079</v>
       </c>
       <c r="N12">
-        <v>1.011579331165185</v>
+        <v>0.9944849633783822</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016329493592705</v>
+        <v>0.9426486657606112</v>
       </c>
       <c r="D13">
-        <v>1.019364795558033</v>
+        <v>0.9548317902072165</v>
       </c>
       <c r="E13">
-        <v>1.026090538737243</v>
+        <v>0.9621510384315131</v>
       </c>
       <c r="F13">
-        <v>1.032879821258317</v>
+        <v>0.9597944137611852</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>1.023103297775152</v>
+        <v>0.9749930931443764</v>
       </c>
       <c r="K13">
-        <v>1.023030682544738</v>
+        <v>0.9708315587514438</v>
       </c>
       <c r="L13">
-        <v>1.02973049799565</v>
+        <v>0.9779945413678061</v>
       </c>
       <c r="M13">
-        <v>1.03649398738241</v>
+        <v>0.9756878859331211</v>
       </c>
       <c r="N13">
-        <v>1.011595282396544</v>
+        <v>0.9945717523635953</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016542795907517</v>
+        <v>0.9438344595827654</v>
       </c>
       <c r="D14">
-        <v>1.019562340944287</v>
+        <v>0.9558636209161381</v>
       </c>
       <c r="E14">
-        <v>1.026286485772475</v>
+        <v>0.9631729016857148</v>
       </c>
       <c r="F14">
-        <v>1.033106020600884</v>
+        <v>0.9609635818682567</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353276</v>
+        <v>1.044410650012189</v>
       </c>
       <c r="J14">
-        <v>1.023253830071777</v>
+        <v>0.9757853005834258</v>
       </c>
       <c r="K14">
-        <v>1.023195260636441</v>
+        <v>0.971686948388966</v>
       </c>
       <c r="L14">
-        <v>1.02989373774941</v>
+        <v>0.9788423572360396</v>
       </c>
       <c r="M14">
-        <v>1.036687618660718</v>
+        <v>0.9766792206770536</v>
       </c>
       <c r="N14">
-        <v>1.011647535282064</v>
+        <v>0.9948550376067185</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016674221194607</v>
+        <v>0.9445616441421009</v>
       </c>
       <c r="D15">
-        <v>1.019684066443393</v>
+        <v>0.9564966340593939</v>
       </c>
       <c r="E15">
-        <v>1.026407226013614</v>
+        <v>0.9637998112988383</v>
       </c>
       <c r="F15">
-        <v>1.033245407492866</v>
+        <v>0.9616808439816089</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.023346570452244</v>
+        <v>0.9762711503437236</v>
       </c>
       <c r="K15">
-        <v>1.023296660099796</v>
+        <v>0.9722115960648264</v>
       </c>
       <c r="L15">
-        <v>1.029994312020902</v>
+        <v>0.9793623631586886</v>
       </c>
       <c r="M15">
-        <v>1.036806926371481</v>
+        <v>0.9772873016849118</v>
       </c>
       <c r="N15">
-        <v>1.011679720441768</v>
+        <v>0.9950287559301377</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017439216323486</v>
+        <v>0.9487433888621071</v>
       </c>
       <c r="D16">
-        <v>1.020392734858089</v>
+        <v>0.9601404702905671</v>
       </c>
       <c r="E16">
-        <v>1.027110152733824</v>
+        <v>0.9674086786959696</v>
       </c>
       <c r="F16">
-        <v>1.034056976255929</v>
+        <v>0.9658095933361809</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.023886245659489</v>
+        <v>0.9790654750500095</v>
       </c>
       <c r="K16">
-        <v>1.023886811393775</v>
+        <v>0.9752298066176178</v>
       </c>
       <c r="L16">
-        <v>1.030579651209672</v>
+        <v>0.9823539208082979</v>
       </c>
       <c r="M16">
-        <v>1.037501428055798</v>
+        <v>0.9807862933836493</v>
       </c>
       <c r="N16">
-        <v>1.011866906140499</v>
+        <v>0.9960276102673969</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017919117811125</v>
+        <v>0.951323292476418</v>
       </c>
       <c r="D17">
-        <v>1.020837418041759</v>
+        <v>0.9623916063026805</v>
       </c>
       <c r="E17">
-        <v>1.027551228051581</v>
+        <v>0.9696383488895516</v>
       </c>
       <c r="F17">
-        <v>1.034566297647292</v>
+        <v>0.968360292372343</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.024224670625149</v>
+        <v>0.9807896959043217</v>
       </c>
       <c r="K17">
-        <v>1.02425696610334</v>
+        <v>0.9770928250981024</v>
       </c>
       <c r="L17">
-        <v>1.030946779363451</v>
+        <v>0.9842005278335468</v>
       </c>
       <c r="M17">
-        <v>1.037937142071138</v>
+        <v>0.9829467950650502</v>
       </c>
       <c r="N17">
-        <v>1.011984194602441</v>
+        <v>0.9966436856736555</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018199051623163</v>
+        <v>0.9528131228331375</v>
       </c>
       <c r="D18">
-        <v>1.021096850381806</v>
+        <v>0.9636926584467121</v>
       </c>
       <c r="E18">
-        <v>1.027808553720032</v>
+        <v>0.9709270416140623</v>
       </c>
       <c r="F18">
-        <v>1.034863465530954</v>
+        <v>0.9698344860339922</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601784</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.024422032995243</v>
+        <v>0.981785463390642</v>
       </c>
       <c r="K18">
-        <v>1.024472860222666</v>
+        <v>0.978168984225825</v>
       </c>
       <c r="L18">
-        <v>1.031160905240654</v>
+        <v>0.9852672200514748</v>
       </c>
       <c r="M18">
-        <v>1.038191313094061</v>
+        <v>0.9841950558448248</v>
       </c>
       <c r="N18">
-        <v>1.012052560889342</v>
+        <v>0.9969993770078213</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018294504512702</v>
+        <v>0.9533186280136875</v>
       </c>
       <c r="D19">
-        <v>1.02118531968617</v>
+        <v>0.9641342898608224</v>
       </c>
       <c r="E19">
-        <v>1.027896304318693</v>
+        <v>0.9713644854203988</v>
       </c>
       <c r="F19">
-        <v>1.03496480732389</v>
+        <v>0.9703348914204395</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044815</v>
       </c>
       <c r="J19">
-        <v>1.024489322541735</v>
+        <v>0.9821233409584942</v>
       </c>
       <c r="K19">
-        <v>1.024546472745361</v>
+        <v>0.9785341793730963</v>
       </c>
       <c r="L19">
-        <v>1.031233914345796</v>
+        <v>0.9856292046794646</v>
       </c>
       <c r="M19">
-        <v>1.038277983385228</v>
+        <v>0.9846186987679656</v>
       </c>
       <c r="N19">
-        <v>1.012075864218767</v>
+        <v>0.9971200496846728</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017867627352106</v>
+        <v>0.9510480558175284</v>
       </c>
       <c r="D20">
-        <v>1.020789701949646</v>
+        <v>0.9621513315616133</v>
       </c>
       <c r="E20">
-        <v>1.027503899283302</v>
+        <v>0.9694003603796393</v>
       </c>
       <c r="F20">
-        <v>1.034511643060462</v>
+        <v>0.9680880432555825</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030192</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.024188364480832</v>
+        <v>0.9806057394886051</v>
       </c>
       <c r="K20">
-        <v>1.024217253142234</v>
+        <v>0.9768940361574319</v>
       </c>
       <c r="L20">
-        <v>1.030907391423385</v>
+        <v>0.984003488651472</v>
       </c>
       <c r="M20">
-        <v>1.037890391364987</v>
+        <v>0.9827162367280911</v>
       </c>
       <c r="N20">
-        <v>1.011971615430321</v>
+        <v>0.9965779673308557</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016479983136562</v>
+        <v>0.9434859893734343</v>
       </c>
       <c r="D21">
-        <v>1.01950416640786</v>
+        <v>0.955560344379195</v>
       </c>
       <c r="E21">
-        <v>1.026228782006593</v>
+        <v>0.9628725524028036</v>
       </c>
       <c r="F21">
-        <v>1.033039406784441</v>
+        <v>0.9606199402410815</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.02320950363501</v>
+        <v>0.9755524873101056</v>
       </c>
       <c r="K21">
-        <v>1.023146797020599</v>
+        <v>0.9714355569153489</v>
       </c>
       <c r="L21">
-        <v>1.029845668365232</v>
+        <v>0.9785931908720417</v>
       </c>
       <c r="M21">
-        <v>1.036630598018782</v>
+        <v>0.9763878652460912</v>
       </c>
       <c r="N21">
-        <v>1.011632150103403</v>
+        <v>0.9947717893767282</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015607635870915</v>
+        <v>0.9385834912712943</v>
       </c>
       <c r="D22">
-        <v>1.018696392602322</v>
+        <v>0.9512982100562218</v>
       </c>
       <c r="E22">
-        <v>1.025427538414887</v>
+        <v>0.95865176932872</v>
       </c>
       <c r="F22">
-        <v>1.032114541764025</v>
+        <v>0.9557903978711093</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.022593727210534</v>
+        <v>0.9722777538070601</v>
       </c>
       <c r="K22">
-        <v>1.022473649605805</v>
+        <v>0.9679003958206623</v>
       </c>
       <c r="L22">
-        <v>1.02917798567144</v>
+        <v>0.9750893885829278</v>
       </c>
       <c r="M22">
-        <v>1.035838739815563</v>
+        <v>0.9722916513841081</v>
       </c>
       <c r="N22">
-        <v>1.011418297299844</v>
+        <v>0.9936005480207812</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016070073231402</v>
+        <v>0.9411970867720781</v>
       </c>
       <c r="D23">
-        <v>1.019124562618864</v>
+        <v>0.9535693606233893</v>
       </c>
       <c r="E23">
-        <v>1.025852248541195</v>
+        <v>0.9609008353892395</v>
       </c>
       <c r="F23">
-        <v>1.032604756279735</v>
+        <v>0.9583639357518365</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288725</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.022920193533506</v>
+        <v>0.9740234101700505</v>
       </c>
       <c r="K23">
-        <v>1.022830508683172</v>
+        <v>0.9697846726241279</v>
       </c>
       <c r="L23">
-        <v>1.029531950268402</v>
+        <v>0.9769569346131335</v>
       </c>
       <c r="M23">
-        <v>1.036258498291528</v>
+        <v>0.9744747613353595</v>
       </c>
       <c r="N23">
-        <v>1.011531704399516</v>
+        <v>0.994224960895152</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017890893626573</v>
+        <v>0.9511724695841327</v>
       </c>
       <c r="D24">
-        <v>1.020811262624287</v>
+        <v>0.9622599383445553</v>
       </c>
       <c r="E24">
-        <v>1.027525284949974</v>
+        <v>0.9695079336167446</v>
       </c>
       <c r="F24">
-        <v>1.03453633883968</v>
+        <v>0.9682111027745041</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.024204769773426</v>
+        <v>0.9806888921121536</v>
       </c>
       <c r="K24">
-        <v>1.024235197753534</v>
+        <v>0.9769838927060506</v>
       </c>
       <c r="L24">
-        <v>1.030925189180637</v>
+        <v>0.98409255423432</v>
       </c>
       <c r="M24">
-        <v>1.037911515915169</v>
+        <v>0.9828204528585983</v>
       </c>
       <c r="N24">
-        <v>1.011977299559188</v>
+        <v>0.9966076738878987</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020004467820774</v>
+        <v>0.9621656349244979</v>
       </c>
       <c r="D25">
-        <v>1.022770793549331</v>
+        <v>0.9718782045810912</v>
       </c>
       <c r="E25">
-        <v>1.029468871081095</v>
+        <v>0.9790355851587871</v>
       </c>
       <c r="F25">
-        <v>1.036781345557515</v>
+        <v>0.9791098436414106</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.02569407411275</v>
+        <v>0.9880369878437153</v>
       </c>
       <c r="K25">
-        <v>1.025864840905052</v>
+        <v>0.9849293481154525</v>
       </c>
       <c r="L25">
-        <v>1.032541431143884</v>
+        <v>0.9919683050629022</v>
       </c>
       <c r="M25">
-        <v>1.039830793941406</v>
+        <v>0.9920413465569718</v>
       </c>
       <c r="N25">
-        <v>1.012492581078627</v>
+        <v>0.9992303662701052</v>
       </c>
     </row>
   </sheetData>
